--- a/Java21 HoangLong Database.xlsx
+++ b/Java21 HoangLong Database.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$O$19</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,9 +21,176 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+  <si>
+    <t>Xác định các đối tượng thuộc tính của đối tượng</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>IdProductType</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Prucharse Price</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>IdColor</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>IdGender</t>
+  </si>
+  <si>
+    <t>IdMaterial</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>TypePeople</t>
+  </si>
+  <si>
+    <t>IdTypePeople</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>DetailOrder</t>
+  </si>
+  <si>
+    <t>IdOrder</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>IdPaymentType</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>TransportFee</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>IdProduct</t>
+  </si>
+  <si>
+    <t>SalePrice</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>TypeLogin</t>
+  </si>
+  <si>
+    <t>IdTypeLogin</t>
+  </si>
+  <si>
+    <t>LoginTime</t>
+  </si>
+  <si>
+    <t>LogoutTime</t>
+  </si>
+  <si>
+    <t>AccountOthers</t>
+  </si>
+  <si>
+    <t>IdAccount</t>
+  </si>
+  <si>
+    <t>IdAccountLogin</t>
+  </si>
+  <si>
+    <t>IdAccountOther</t>
+  </si>
+  <si>
+    <t>Id (uniqueidentifier)</t>
+  </si>
+  <si>
+    <t>Name (nvarchar50)</t>
+  </si>
+  <si>
+    <t>Email (varchar100)</t>
+  </si>
+  <si>
+    <t>Address (nvarchar200)</t>
+  </si>
+  <si>
+    <t>PhoneNumber (varchar15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name (nvarchar50) </t>
+  </si>
+  <si>
+    <t>IdManufacturer (varchar15)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +198,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +227,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +531,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>